--- a/draft-exemple/ig/ValueSet-eclaire-type-contact-vs.xlsx
+++ b/draft-exemple/ig/ValueSet-eclaire-type-contact-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-19T13:15:33+00:00</t>
+    <t>2025-05-19T13:39:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/draft-exemple/ig/ValueSet-eclaire-type-contact-vs.xlsx
+++ b/draft-exemple/ig/ValueSet-eclaire-type-contact-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-19T13:39:30+00:00</t>
+    <t>2025-05-19T13:56:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/draft-exemple/ig/ValueSet-eclaire-type-contact-vs.xlsx
+++ b/draft-exemple/ig/ValueSet-eclaire-type-contact-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-19T13:56:15+00:00</t>
+    <t>2025-05-19T14:11:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/draft-exemple/ig/ValueSet-eclaire-type-contact-vs.xlsx
+++ b/draft-exemple/ig/ValueSet-eclaire-type-contact-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-19T14:11:07+00:00</t>
+    <t>2025-05-19T14:28:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/draft-exemple/ig/ValueSet-eclaire-type-contact-vs.xlsx
+++ b/draft-exemple/ig/ValueSet-eclaire-type-contact-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-19T14:28:33+00:00</t>
+    <t>2025-05-19T14:47:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/draft-exemple/ig/ValueSet-eclaire-type-contact-vs.xlsx
+++ b/draft-exemple/ig/ValueSet-eclaire-type-contact-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-19T14:47:37+00:00</t>
+    <t>2025-05-19T15:05:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/draft-exemple/ig/ValueSet-eclaire-type-contact-vs.xlsx
+++ b/draft-exemple/ig/ValueSet-eclaire-type-contact-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-19T15:05:23+00:00</t>
+    <t>2025-05-19T15:14:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/draft-exemple/ig/ValueSet-eclaire-type-contact-vs.xlsx
+++ b/draft-exemple/ig/ValueSet-eclaire-type-contact-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-19T15:14:17+00:00</t>
+    <t>2025-05-19T16:30:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/draft-exemple/ig/ValueSet-eclaire-type-contact-vs.xlsx
+++ b/draft-exemple/ig/ValueSet-eclaire-type-contact-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-19T16:30:54+00:00</t>
+    <t>2025-05-19T16:42:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/draft-exemple/ig/ValueSet-eclaire-type-contact-vs.xlsx
+++ b/draft-exemple/ig/ValueSet-eclaire-type-contact-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-19T16:42:12+00:00</t>
+    <t>2025-05-19T16:48:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/draft-exemple/ig/ValueSet-eclaire-type-contact-vs.xlsx
+++ b/draft-exemple/ig/ValueSet-eclaire-type-contact-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-19T16:48:48+00:00</t>
+    <t>2025-05-20T09:51:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/draft-exemple/ig/ValueSet-eclaire-type-contact-vs.xlsx
+++ b/draft-exemple/ig/ValueSet-eclaire-type-contact-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-20T09:51:21+00:00</t>
+    <t>2025-05-20T10:05:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/draft-exemple/ig/ValueSet-eclaire-type-contact-vs.xlsx
+++ b/draft-exemple/ig/ValueSet-eclaire-type-contact-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-20T10:05:16+00:00</t>
+    <t>2025-05-20T12:05:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/draft-exemple/ig/ValueSet-eclaire-type-contact-vs.xlsx
+++ b/draft-exemple/ig/ValueSet-eclaire-type-contact-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-20T12:05:22+00:00</t>
+    <t>2025-05-20T12:16:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/draft-exemple/ig/ValueSet-eclaire-type-contact-vs.xlsx
+++ b/draft-exemple/ig/ValueSet-eclaire-type-contact-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-20T12:16:37+00:00</t>
+    <t>2025-05-20T12:25:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/draft-exemple/ig/ValueSet-eclaire-type-contact-vs.xlsx
+++ b/draft-exemple/ig/ValueSet-eclaire-type-contact-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-20T12:25:23+00:00</t>
+    <t>2025-05-20T12:38:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/draft-exemple/ig/ValueSet-eclaire-type-contact-vs.xlsx
+++ b/draft-exemple/ig/ValueSet-eclaire-type-contact-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-20T12:38:27+00:00</t>
+    <t>2025-05-20T16:31:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
